--- a/src/main/resources/190-wanxin-p2p/depository-agent-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/depository-agent-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="220">
   <si>
     <t>类名</t>
   </si>
@@ -280,7 +280,7 @@
     <t>com.wanxin.depository.common.intercept.GlobalExceptionHandler</t>
   </si>
   <si>
-    <t>exceptionGet(javax.servlet.http.HttpServletRequest)</t>
+    <t>exceptionGet(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Exception)</t>
   </si>
   <si>
     <t>com.wanxin.common.domain.RestResponse</t>
@@ -409,7 +409,7 @@
     <t>sendHttpGet(java.lang.String,java.lang.String,java.lang.String,com.wanxin.depository.entity.DepositoryRecord)</t>
   </si>
   <si>
-    <t>convertProjectDTOToProjectRequestDataDTO(com.wanxin.api.transaction.model.ProjectDTO)</t>
+    <t>convertProjectDTOToProjectRequestDataDTO(com.wanxin.api.transaction.model.ProjectDTO,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.api.depository.model.ProjectRequestDataDTO</t>
@@ -439,10 +439,10 @@
     <t>verifySignature(java.lang.String,java.lang.String)</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>responseOut(javax.servlet.http.HttpServletResponse)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
+  </si>
+  <si>
+    <t>responseOut(javax.servlet.http.HttpServletResponse,java.lang.String)</t>
   </si>
   <si>
     <t>com.wanxin.depository.interceptor.SignatureInterceptor</t>
@@ -659,9 +659,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>convertProjectDTOToProjectRequestDataDTO(com.wanxin.api.transaction.model.ProjectDTO,java.lang.String)</t>
   </si>
   <si>
     <t>3</t>
@@ -5918,7 +5915,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6870,7 +6867,7 @@
         <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
         <v>211</v>
@@ -7482,27 +7479,27 @@
         <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E93" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
@@ -7513,13 +7510,13 @@
         <v>142</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95">
@@ -7533,9 +7530,26 @@
         <v>106</v>
       </c>
       <c r="D95" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
         <v>108</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7554,10 +7568,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
       </c>
       <c r="C1" t="s">
         <v>208</v>
@@ -7794,10 +7808,10 @@
         <v>207</v>
       </c>
       <c r="C1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" t="s">
         <v>217</v>
-      </c>
-      <c r="D1" t="s">
-        <v>218</v>
       </c>
       <c r="E1" t="s">
         <v>210</v>
@@ -7818,16 +7832,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
       <c r="C1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1" t="s">
         <v>210</v>
@@ -7857,7 +7871,7 @@
         <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
         <v>210</v>
@@ -7997,16 +8011,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
       </c>
       <c r="C1" t="s">
         <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
         <v>210</v>
